--- a/public/assets/files/templatemayorcompra.xlsx
+++ b/public/assets/files/templatemayorcompra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contabilidad\AppContador\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E1525-A1AC-4D66-BC62-0EC4565AB959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D558F-E6E6-47EA-BC27-303C9659A2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>PERIODO</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>RUC</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -242,12 +248,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,6 +289,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,133 +582,161 @@
   <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:41" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -677,6 +744,11 @@
       <c r="G6" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
